--- a/Documents/Sprint Logs/Burndown Charts.xlsx
+++ b/Documents/Sprint Logs/Burndown Charts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computing\Documents\GitHub\Notepad_Software\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\Computer Science year 3\Software Engineering\Assignment\Notepad_Software\Documents\Sprint Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Work Remaining</t>
+    <t>Work Remaining (hours)</t>
   </si>
   <si>
-    <t>Work done</t>
+    <t>Work done (hours)</t>
   </si>
   <si>
-    <t xml:space="preserve">Work Remaining </t>
+    <t xml:space="preserve">Work Remaining (hours) </t>
   </si>
   <si>
-    <t>Work Done</t>
+    <t>Work Done (Hours)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -130,7 +130,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -176,7 +175,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work done</c:v>
+                  <c:v>Work done (hours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -191,39 +190,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$4:$C$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>415</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>390</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>250</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-87EA-4B9A-B796-94F54F5A0EF1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -249,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work Remaining</c:v>
+                  <c:v>Work Remaining (hours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -266,40 +281,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$B$4:$B$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$B$4:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>420</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87EA-4B9A-B796-94F54F5A0EF1}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -342,12 +373,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Sprint Hours</a:t>
+                  <a:t>Sprint Day</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -462,12 +492,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Work Remaining</a:t>
+                  <a:t>Work Remaining (Hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -542,7 +571,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -610,7 +638,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -649,7 +677,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -695,7 +722,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work Done</c:v>
+                  <c:v>Work Done (Hours)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -710,39 +737,55 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$G$4:$G$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$G$4:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>400</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>380</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-710D-4C5C-BC9A-DAD818F13B41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -768,7 +811,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Work Remaining </c:v>
+                  <c:v>Work Remaining (hours) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -785,40 +828,56 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$11</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$F$4:$F$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet1!$F$4:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>420</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>360</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-710D-4C5C-BC9A-DAD818F13B41}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -861,12 +920,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Sprint Hours</a:t>
+                  <a:t>Sprint Day</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -981,12 +1039,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Work Remaining</a:t>
+                  <a:t>Work Remaining (Hours)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1061,7 +1118,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2231,7 +2287,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2261,7 +2323,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2542,10 +2610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B3:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,114 +2639,44 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>415</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>420</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>400</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>390</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>380</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>280</v>
-      </c>
-      <c r="C7">
-        <v>330</v>
-      </c>
-      <c r="F7">
-        <v>240</v>
-      </c>
-      <c r="G7">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>270</v>
-      </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-      <c r="F8">
-        <v>180</v>
-      </c>
-      <c r="G8">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>260</v>
-      </c>
-      <c r="C9">
-        <v>290</v>
-      </c>
-      <c r="F9">
-        <v>120</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>250</v>
-      </c>
-      <c r="C10">
-        <v>275</v>
-      </c>
-      <c r="F10">
-        <v>60</v>
-      </c>
-      <c r="G10">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>240</v>
-      </c>
-      <c r="C11">
-        <v>250</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
